--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Task</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Project Milestone</t>
   </si>
   <si>
-    <t>Target Date</t>
-  </si>
-  <si>
     <t>Actual Start Date</t>
   </si>
   <si>
@@ -48,6 +45,12 @@
   </si>
   <si>
     <t>Serial No.</t>
+  </si>
+  <si>
+    <t>Target Start Date</t>
+  </si>
+  <si>
+    <t>Target End Date</t>
   </si>
 </sst>
 </file>
@@ -55,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -112,9 +115,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -432,26 +435,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE75DE5-79E2-42E1-845C-3FD67C7890B7}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.1796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -460,260 +463,287 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="2920" xr2:uid="{0FA9E7B1-238D-4313-9882-BAC7D8C03296}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{0FA9E7B1-238D-4313-9882-BAC7D8C03296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -51,14 +51,96 @@
   </si>
   <si>
     <t>Target End Date</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Milestone 2 Rough Draft 1</t>
+  </si>
+  <si>
+    <t>Milestone 2 Rough Draft 2</t>
+  </si>
+  <si>
+    <t>Milestone 2 Rough Draft 3</t>
+  </si>
+  <si>
+    <t>Milestone 2 Final</t>
+  </si>
+  <si>
+    <t>Create GIT repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2700-Indu</t>
+  </si>
+  <si>
+    <t>Create Project Plan</t>
+  </si>
+  <si>
+    <t>Create Change Log</t>
+  </si>
+  <si>
+    <t>2700-Indu</t>
+  </si>
+  <si>
+    <t>Research Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100-Prerana </t>
+  </si>
+  <si>
+    <t>2100-Prerana</t>
+  </si>
+  <si>
+    <t>Milestone 1 Deliverable 1</t>
+  </si>
+  <si>
+    <t>Milestone 1 Deliverable 2</t>
+  </si>
+  <si>
+    <t>Milestone 1 Deliverable 3</t>
+  </si>
+  <si>
+    <t>Milestone 1 Deliverable 4</t>
+  </si>
+  <si>
+    <t>Milestone 1 Deliverable 5</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Milestone 3 Rough Draft 1</t>
+  </si>
+  <si>
+    <t>Milestone 3 Rough Draft 2</t>
+  </si>
+  <si>
+    <t>Milestone 3 Final</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>Milestone 4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Milestone 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0;[Red]0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -118,9 +200,18 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,25 +526,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE75DE5-79E2-42E1-845C-3FD67C7890B7}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.7265625" style="12"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" customWidth="1"/>
     <col min="4" max="5" width="15.1796875" style="6" customWidth="1"/>
     <col min="6" max="6" width="19.7265625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.453125" style="6" customWidth="1"/>
     <col min="8" max="8" width="16.81640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -482,205 +574,457 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43142</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43142</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43144</v>
+      </c>
+      <c r="G3" s="5">
+        <v>43144</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43144</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43144</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43144</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43144</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43144</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43144</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43144</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43144</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="3"/>
+      <c r="A8" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43143</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43144</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43143</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43144</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43147</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43143</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43143</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5">
+        <v>43144</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43151</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="8"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43151</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43158</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="8"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43158</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43165</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43165</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43172</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43193</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43200</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5">
+        <v>43200</v>
+      </c>
+      <c r="E16" s="5">
+        <v>43207</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43207</v>
+      </c>
+      <c r="E17" s="5">
+        <v>43214</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="8"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43221</v>
+      </c>
+      <c r="E18" s="5">
+        <v>43228</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="8"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="11">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43137</v>
+      </c>
+      <c r="E19" s="5">
+        <v>43228</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="8"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
@@ -691,7 +1035,7 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
@@ -702,7 +1046,7 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
@@ -713,7 +1057,7 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
@@ -724,7 +1068,7 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
@@ -735,7 +1079,7 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
@@ -745,6 +1089,94 @@
       <c r="H25" s="8"/>
       <c r="I25" s="3"/>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -132,6 +132,24 @@
   </si>
   <si>
     <t>Milestone 5</t>
+  </si>
+  <si>
+    <t>Task Dependencies</t>
+  </si>
+  <si>
+    <t>1.0, 1.1</t>
+  </si>
+  <si>
+    <t>1.0, 1.2</t>
+  </si>
+  <si>
+    <t>Set up Slack Acct</t>
+  </si>
+  <si>
+    <t>1.0, 1.4</t>
+  </si>
+  <si>
+    <t>1.0, 1.3</t>
   </si>
 </sst>
 </file>
@@ -192,25 +210,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,656 +558,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE75DE5-79E2-42E1-845C-3FD67C7890B7}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="12"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
-    <col min="4" max="5" width="15.1796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2">
         <v>43137</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="2">
         <v>43147</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="2">
         <v>43142</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="2">
         <v>43142</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1"/>
+      <c r="E3" s="2">
         <v>43137</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="2">
         <v>43147</v>
       </c>
-      <c r="F3" s="5">
-        <v>43144</v>
-      </c>
-      <c r="G3" s="5">
-        <v>43144</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="2">
+        <v>43144</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43144</v>
+      </c>
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>1.2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1"/>
+      <c r="E4" s="2">
         <v>43137</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="2">
         <v>43147</v>
       </c>
-      <c r="F4" s="5">
-        <v>43144</v>
-      </c>
-      <c r="G4" s="5">
-        <v>43144</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="2">
+        <v>43144</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43144</v>
+      </c>
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>1.3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
         <v>43137</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="2">
         <v>43147</v>
       </c>
-      <c r="F5" s="5">
-        <v>43144</v>
-      </c>
-      <c r="G5" s="5">
-        <v>43144</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="2">
+        <v>43144</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43144</v>
+      </c>
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>1.4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2">
+        <v>43137</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43147</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43144</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43144</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2">
         <v>43137</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F7" s="2">
         <v>43147</v>
       </c>
-      <c r="F6" s="5">
-        <v>43144</v>
-      </c>
-      <c r="G6" s="5">
-        <v>43144</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G7" s="2">
+        <v>43144</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43144</v>
+      </c>
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
         <v>43137</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F8" s="2">
         <v>43147</v>
       </c>
-      <c r="F7" s="5">
-        <v>43144</v>
-      </c>
-      <c r="G7" s="5">
-        <v>43144</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G8" s="2">
+        <v>43144</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43144</v>
+      </c>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
         <v>43137</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F9" s="2">
         <v>43147</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G9" s="2">
         <v>43143</v>
       </c>
-      <c r="G8" s="5">
-        <v>43144</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="H9" s="2">
+        <v>43144</v>
+      </c>
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2">
         <v>43137</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="2">
         <v>43147</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G10" s="2">
         <v>43143</v>
       </c>
-      <c r="G9" s="5">
-        <v>43144</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="H10" s="2">
+        <v>43144</v>
+      </c>
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2">
         <v>43137</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F11" s="2">
         <v>43147</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G11" s="2">
         <v>43143</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H11" s="2">
         <v>43143</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5">
-        <v>43144</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D12" s="1"/>
+      <c r="E12" s="2">
+        <v>43144</v>
+      </c>
+      <c r="F12" s="2">
         <v>43151</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>2.1</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2">
         <v>43151</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F13" s="2">
         <v>43158</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2">
         <v>43158</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F14" s="2">
         <v>43165</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="1"/>
+      <c r="E15" s="2">
         <v>43165</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F15" s="2">
         <v>43172</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="1"/>
+      <c r="E16" s="2">
         <v>43193</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F16" s="2">
         <v>43200</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>3.1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="1"/>
+      <c r="E17" s="2">
         <v>43200</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F17" s="2">
         <v>43207</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>3.2</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2">
         <v>43207</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F18" s="2">
         <v>43214</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="1"/>
+      <c r="E19" s="2">
         <v>43221</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F19" s="2">
         <v>43228</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="1"/>
+      <c r="E20" s="2">
         <v>43137</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F20" s="2">
         <v>43228</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Assignments\ATeam1\A2_solved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\New folder (3)\Course Material UST\Sem 5-Spr2018\Data Warehousing\Assignments\ATeam1\A2_solved\Team_04_M1_support\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{0FA9E7B1-238D-4313-9882-BAC7D8C03296}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19152" windowHeight="6864" activeTab="2" xr2:uid="{0FA9E7B1-238D-4313-9882-BAC7D8C03296}"/>
   </bookViews>
   <sheets>
     <sheet name="Task wise" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Actual End Date</t>
   </si>
   <si>
-    <t>Resources Assigned</t>
-  </si>
-  <si>
     <t>Serial No.</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Set up Slack Acct</t>
   </si>
   <si>
-    <t>Expected number of hours required</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>Hours M1 W2</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual number of hours worked </t>
-  </si>
-  <si>
     <t>Hours worked per day - Milestone 1 - 2700-Indu</t>
   </si>
   <si>
@@ -191,6 +182,18 @@
   </si>
   <si>
     <t>1.00-1.10</t>
+  </si>
+  <si>
+    <t>Task Owner</t>
+  </si>
+  <si>
+    <t>Actual efforts in hours</t>
+  </si>
+  <si>
+    <t>Estimated efforts in hours</t>
+  </si>
+  <si>
+    <t>Task Completion Status</t>
   </si>
 </sst>
 </file>
@@ -200,9 +203,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0;[Red]0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +228,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +247,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -388,7 +403,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -400,13 +415,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -415,13 +445,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -433,10 +478,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -445,13 +490,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -463,10 +523,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -478,10 +536,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -493,64 +549,18 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,7 +580,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,52 +589,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -633,6 +628,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,95 +760,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1054,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE75DE5-79E2-42E1-845C-3FD67C7890B7}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,44 +1094,47 @@
     <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="11.5546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="48.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4"/>
+      <c r="I1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1121,47 +1147,50 @@
       <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="56">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59">
+        <v>43137</v>
+      </c>
+      <c r="F2" s="59">
+        <v>43147</v>
+      </c>
+      <c r="G2" s="59">
+        <v>43142</v>
+      </c>
+      <c r="H2" s="59">
+        <v>43142</v>
+      </c>
+      <c r="I2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="13">
-        <v>43137</v>
-      </c>
-      <c r="F2" s="13">
-        <v>43147</v>
-      </c>
-      <c r="G2" s="13">
-        <v>43142</v>
-      </c>
-      <c r="H2" s="13">
-        <v>43142</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
-        <v>1.01</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="6">
@@ -1177,24 +1206,27 @@
         <v>43144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="10">
         <v>1.02</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6">
@@ -1210,24 +1242,27 @@
         <v>43144</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
-        <v>1.03</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6">
@@ -1243,24 +1278,27 @@
         <v>43144</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="2">
         <v>2</v>
       </c>
+      <c r="L5" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>1.04</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="6">
@@ -1276,27 +1314,30 @@
         <v>43144</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2">
         <v>0.25</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="2">
         <v>0.25</v>
       </c>
+      <c r="L6" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>1.05</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6">
         <v>43137</v>
@@ -1311,27 +1352,30 @@
         <v>43144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>1.06</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6">
         <v>43137</v>
@@ -1346,27 +1390,30 @@
         <v>43144</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>1.07</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6">
         <v>43137</v>
@@ -1381,27 +1428,30 @@
         <v>43144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="2">
         <v>0.5</v>
       </c>
+      <c r="L9" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="10">
         <v>1.08</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="6">
         <v>43137</v>
@@ -1416,24 +1466,27 @@
         <v>43144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="10">
         <v>1.0900000000000001</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="6">
@@ -1449,24 +1502,27 @@
         <v>43143</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2">
         <v>0.25</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="2">
         <v>0.2</v>
       </c>
+      <c r="L11" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2">
         <v>1.01</v>
@@ -1484,82 +1540,89 @@
         <v>43147</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>0.5</v>
       </c>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6">
         <v>43147</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="6">
         <v>43147</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="6">
         <v>43147</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="6">
         <v>43147</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.25</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="2">
         <v>0.25</v>
+      </c>
+      <c r="L13" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="6">
+        <v>43144</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43151</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13">
-        <v>43144</v>
-      </c>
-      <c r="F14" s="13">
-        <v>43151</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>2.1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="6">
@@ -1572,17 +1635,18 @@
       <c r="H15" s="6"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="6">
@@ -1595,17 +1659,18 @@
       <c r="H16" s="6"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="K16" s="2"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="6">
@@ -1618,17 +1683,18 @@
       <c r="H17" s="6"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="K17" s="2"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="6">
@@ -1641,17 +1707,18 @@
       <c r="H18" s="6"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="K18" s="2"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>3.1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="6">
@@ -1664,17 +1731,18 @@
       <c r="H19" s="6"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="K19" s="2"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>3.2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="6">
@@ -1687,17 +1755,18 @@
       <c r="H20" s="6"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="K20" s="2"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="6">
@@ -1710,212 +1779,214 @@
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="K21" s="2"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6">
+      <c r="D22" s="13"/>
+      <c r="E22" s="15">
         <v>43137</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="15">
         <v>43228</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="35"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="16"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="16"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="21"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1928,840 +1999,840 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="26"/>
-    <col min="4" max="4" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="26" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" style="26" customWidth="1"/>
-    <col min="13" max="14" width="9.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="3.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="21"/>
+    <col min="4" max="4" width="8.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="21" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" style="21" customWidth="1"/>
+    <col min="13" max="14" width="9.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34"/>
-      <c r="B1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="37">
-        <v>1</v>
-      </c>
-      <c r="D2" s="37">
+      <c r="A2" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
         <v>1.01</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="26">
         <v>1.02</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="26">
         <v>1.03</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="26">
         <v>1.04</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="26">
         <v>1.05</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="26">
         <v>1.06</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="26">
         <v>1.07</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="26">
         <v>1.08</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="26">
         <v>1.0900000000000001</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="O2" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="O2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="40">
+      <c r="A3" s="64"/>
+      <c r="B3" s="29">
         <v>43137</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32">
         <f>SUM(C3:N3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="44">
+      <c r="A4" s="64"/>
+      <c r="B4" s="33">
         <v>43138</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="45">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="34">
         <f t="shared" ref="O4:O19" si="0">SUM(C4:N4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="40">
+      <c r="A5" s="64"/>
+      <c r="B5" s="29">
         <v>43139</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="45">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="44">
+      <c r="A6" s="64"/>
+      <c r="B6" s="33">
         <v>43140</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="45">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="40">
+      <c r="A7" s="64"/>
+      <c r="B7" s="29">
         <v>43141</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="45">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="44">
+      <c r="A8" s="64"/>
+      <c r="B8" s="33">
         <v>43142</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="30">
         <v>0.25</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="45">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="34">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="40">
+      <c r="A9" s="65"/>
+      <c r="B9" s="29">
         <v>43143</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="45">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="48">
+      <c r="B10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="37">
         <f>SUM(C3:C9)</f>
         <v>0.25</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="37">
         <f t="shared" ref="D10:N10" si="1">SUM(D3:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="37">
         <f>SUM(K3:K9)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="28">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="40">
+      <c r="A11" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="29">
         <v>43144</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41">
-        <v>1</v>
-      </c>
-      <c r="E11" s="41">
-        <v>1</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41">
-        <v>1</v>
-      </c>
-      <c r="I11" s="41">
-        <v>1</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="45">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30">
+        <v>2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="40">
+      <c r="A12" s="64"/>
+      <c r="B12" s="29">
         <v>43145</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="45">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="40">
+      <c r="A13" s="64"/>
+      <c r="B13" s="29">
         <v>43146</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="45">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="40">
+      <c r="A14" s="64"/>
+      <c r="B14" s="29">
         <v>43147</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="45">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="40">
+      <c r="A15" s="64"/>
+      <c r="B15" s="29">
         <v>43148</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="45">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="40">
+      <c r="A16" s="64"/>
+      <c r="B16" s="29">
         <v>43149</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="45">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="40">
+      <c r="A17" s="65"/>
+      <c r="B17" s="29">
         <v>43150</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="45">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="37">
+      <c r="A18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="26">
         <f>SUM(C11:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="26">
         <f t="shared" ref="D18:N18" si="2">SUM(D11:D17)</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="37">
+        <v>2</v>
+      </c>
+      <c r="E18" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="53">
-        <f>SUM(C10,C18)</f>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="42">
+        <f t="shared" ref="C19:N19" si="3">SUM(C10,C18)</f>
         <v>0.25</v>
       </c>
-      <c r="D19" s="53">
-        <f>SUM(D10,D18)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="53">
-        <f>SUM(E10,E18)</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="53">
-        <f>SUM(F10,F18)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="53">
-        <f>SUM(G10,G18)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="53">
-        <f>SUM(H10,H18)</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="53">
-        <f>SUM(I10,I18)</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="53">
-        <f>SUM(J10,J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="53">
-        <f>SUM(K10,K18)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="53">
-        <f>SUM(L10,L18)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="53">
-        <f>SUM(M10,M18)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="54">
-        <f>SUM(N10,N18)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="52">
+      <c r="D19" s="42">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="41">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="41"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="59"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="59"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="59"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="59"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="59"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="59"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="59"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="59"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="59"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="59"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="60"/>
-      <c r="D35" s="27"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="62"/>
+      <c r="B35" s="49"/>
+      <c r="D35" s="22"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2781,643 +2852,643 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C3896A-307F-4937-8740-B5B5AB467D91}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.88671875" style="26"/>
-    <col min="15" max="15" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="3.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="8.88671875" style="21"/>
+    <col min="15" max="15" width="10.88671875" style="21" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34"/>
-      <c r="B1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="37">
-        <v>1</v>
-      </c>
-      <c r="D2" s="37">
+      <c r="A2" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
         <v>1.01</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="26">
         <v>1.02</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="26">
         <v>1.03</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="26">
         <v>1.04</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="26">
         <v>1.05</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="26">
         <v>1.06</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="26">
         <v>1.07</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="26">
         <v>1.08</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="26">
         <v>1.0900000000000001</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="27">
         <v>1.1100000000000001</v>
       </c>
-      <c r="O2" s="39" t="s">
-        <v>51</v>
+      <c r="O2" s="28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="40">
+      <c r="A3" s="64"/>
+      <c r="B3" s="29">
         <v>43137</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32">
         <f>SUM(C3:N3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="44">
+      <c r="A4" s="64"/>
+      <c r="B4" s="33">
         <v>43138</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="45">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="34">
         <f t="shared" ref="O4:O19" si="0">SUM(C4:N4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="40">
+      <c r="A5" s="64"/>
+      <c r="B5" s="29">
         <v>43139</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="45">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="44">
+      <c r="A6" s="64"/>
+      <c r="B6" s="33">
         <v>43140</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="45">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="40">
+      <c r="A7" s="64"/>
+      <c r="B7" s="29">
         <v>43141</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="45">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="44">
+      <c r="A8" s="64"/>
+      <c r="B8" s="33">
         <v>43142</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="45">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="40">
+      <c r="A9" s="65"/>
+      <c r="B9" s="29">
         <v>43143</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="26">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="21">
         <v>0.25</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="21">
         <v>0.1</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="45">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="34">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="48">
+      <c r="B10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="37">
         <f>SUM(C3:C9)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="37">
         <f t="shared" ref="D10:N10" si="1">SUM(D3:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="37">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="37">
         <f>SUM(K3:K9)</f>
         <v>0.1</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="28">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="40">
+      <c r="A11" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="29">
         <v>43144</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="26">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="21">
         <v>2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="21">
         <v>0.25</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="26">
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="21">
         <v>0.25</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="21">
         <v>0.9</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="45">
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="34">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="40">
+      <c r="A12" s="64"/>
+      <c r="B12" s="29">
         <v>43145</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="45">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="40">
+      <c r="A13" s="64"/>
+      <c r="B13" s="29">
         <v>43146</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="45">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="40">
+      <c r="A14" s="64"/>
+      <c r="B14" s="29">
         <v>43147</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="26">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="21">
         <v>0.2</v>
       </c>
-      <c r="M14" s="26">
-        <v>1</v>
-      </c>
-      <c r="N14" s="42">
+      <c r="M14" s="21">
+        <v>1</v>
+      </c>
+      <c r="N14" s="31">
         <v>0.25</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="34">
         <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="40">
+      <c r="A15" s="64"/>
+      <c r="B15" s="29">
         <v>43148</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="45">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="40">
+      <c r="A16" s="64"/>
+      <c r="B16" s="29">
         <v>43149</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="45">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="40">
+      <c r="A17" s="65"/>
+      <c r="B17" s="29">
         <v>43150</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="45">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="37">
+      <c r="A18" s="32"/>
+      <c r="B18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="26">
         <f>SUM(C11:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="26">
         <f t="shared" ref="D18:N18" si="2">SUM(D11:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="26">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="26">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="26">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="26">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="27">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="28">
         <f t="shared" si="0"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="53">
-        <f>SUM(C10,C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="53">
-        <f>SUM(D10,D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="53">
-        <f>SUM(E10,E18)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="53">
-        <f>SUM(F10,F18)</f>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="42">
+        <f t="shared" ref="C19:N19" si="3">SUM(C10,C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="42">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G19" s="53">
-        <f>SUM(G10,G18)</f>
+      <c r="G19" s="42">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="H19" s="53">
-        <f>SUM(H10,H18)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="53">
-        <f>SUM(I10,I18)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="53">
-        <f>SUM(J10,J18)</f>
+      <c r="H19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K19" s="53">
-        <f>SUM(K10,K18)</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="53">
-        <f>SUM(L10,L18)</f>
+      <c r="K19" s="42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="42">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M19" s="53">
-        <f>SUM(M10,M18)</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="54">
-        <f>SUM(N10,N18)</f>
+      <c r="M19" s="42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="43">
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="O19" s="52">
+      <c r="O19" s="41">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="O20" s="41"/>
+      <c r="O20" s="30"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="O21" s="41"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="O22" s="55"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="O23" s="41"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3426,5 +3497,8 @@
     <mergeCell ref="A11:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="O3:O9 O11:O17" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>